--- a/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="419">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>RelatedPerson.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>RelatedPerson.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>RelatedPerson.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>RelatedPerson.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -471,7 +471,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -548,7 +548,7 @@
     <t>RelatedPerson.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -630,7 +630,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>IHI</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -654,10 +654,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -681,7 +681,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -699,7 +699,7 @@
     <t>RelatedPerson.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -721,7 +721,7 @@
     <t>RelatedPerson.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -769,13 +769,16 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -799,7 +802,7 @@
     <t>RelatedPerson.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -877,7 +880,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/dva</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -918,13 +921,16 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -962,6 +968,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
@@ -988,7 +997,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Commonwealth Seniors Health Card</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
   </si>
   <si>
     <t>medicalRecordNumber</t>
@@ -1011,7 +1020,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Medical Record Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1046,6 +1055,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1118,7 +1130,7 @@
     <t>RelatedPerson.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -1134,7 +1146,7 @@
     <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -1146,7 +1158,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -1192,7 +1204,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -1214,7 +1226,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1263,7 +1275,7 @@
     <t>RelatedPerson.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -1279,7 +1291,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1301,7 +1313,7 @@
     <t>RelatedPerson.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Attachment {[]} {[]}
 </t>
   </si>
   <si>
@@ -1385,67 +1397,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1481,7 +1493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL144"/>
+  <dimension ref="A1:AM144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1504,7 +1516,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6114,7 +6126,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6208,10 +6220,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
@@ -6222,7 +6234,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>39</v>
@@ -6316,10 +6328,10 @@
         <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>211</v>
@@ -6345,7 +6357,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6424,7 +6436,7 @@
         <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>220</v>
@@ -6504,7 +6516,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6610,7 +6622,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6718,7 +6730,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6741,16 +6753,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6800,7 +6812,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6809,24 +6821,24 @@
         <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6849,23 +6861,23 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>39</v>
@@ -6910,7 +6922,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6919,19 +6931,19 @@
         <v>48</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7047,7 +7059,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -7072,10 +7084,10 @@
         <v>104</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
@@ -7140,7 +7152,7 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>110</v>
@@ -7504,10 +7516,10 @@
         <v>170</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>173</v>
@@ -7941,7 +7953,7 @@
         <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>193</v>
@@ -8048,10 +8060,10 @@
         <v>61</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
@@ -8062,7 +8074,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>39</v>
@@ -8156,13 +8168,13 @@
         <v>119</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8185,7 +8197,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>39</v>
@@ -8455,7 +8467,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8480,10 +8492,10 @@
         <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -8912,10 +8924,10 @@
         <v>170</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>173</v>
@@ -8931,7 +8943,7 @@
         <v>39</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>39</v>
@@ -9349,7 +9361,7 @@
         <v>191</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>193</v>
@@ -9362,7 +9374,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9456,10 +9468,10 @@
         <v>61</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
@@ -9470,7 +9482,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>39</v>
@@ -9564,13 +9576,13 @@
         <v>119</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9593,7 +9605,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>39</v>
@@ -9863,7 +9875,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9888,10 +9900,10 @@
         <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10320,10 +10332,10 @@
         <v>170</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>173</v>
@@ -10339,7 +10351,7 @@
         <v>39</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>39</v>
@@ -10757,7 +10769,7 @@
         <v>191</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>193</v>
@@ -10770,7 +10782,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10864,10 +10876,10 @@
         <v>61</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -10878,7 +10890,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>39</v>
@@ -10972,13 +10984,13 @@
         <v>119</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11001,7 +11013,7 @@
         <v>39</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="W88" t="s" s="2">
         <v>39</v>
@@ -11271,7 +11283,7 @@
         <v>103</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -11296,10 +11308,10 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -11728,10 +11740,10 @@
         <v>170</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>173</v>
@@ -11747,7 +11759,7 @@
         <v>39</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>39</v>
@@ -12165,7 +12177,7 @@
         <v>191</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>193</v>
@@ -12178,7 +12190,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>39</v>
@@ -12272,10 +12284,10 @@
         <v>61</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
@@ -12286,7 +12298,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>39</v>
@@ -12380,13 +12392,13 @@
         <v>119</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12409,7 +12421,7 @@
         <v>39</v>
       </c>
       <c r="V101" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="W101" t="s" s="2">
         <v>39</v>
@@ -12679,7 +12691,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -12704,10 +12716,10 @@
         <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -13136,7 +13148,7 @@
         <v>170</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>172</v>
@@ -13155,7 +13167,7 @@
         <v>39</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>39</v>
@@ -13573,7 +13585,7 @@
         <v>191</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>193</v>
@@ -13586,7 +13598,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>39</v>
@@ -13680,10 +13692,10 @@
         <v>61</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
@@ -13788,10 +13800,10 @@
         <v>119</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>211</v>
@@ -14002,7 +14014,7 @@
         <v>225</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>227</v>
@@ -14087,7 +14099,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -14112,10 +14124,10 @@
         <v>104</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -14544,7 +14556,7 @@
         <v>170</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>172</v>
@@ -14563,7 +14575,7 @@
         <v>39</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>39</v>
@@ -14981,7 +14993,7 @@
         <v>191</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>193</v>
@@ -14994,7 +15006,7 @@
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="R125" t="s" s="2">
         <v>39</v>
@@ -15088,10 +15100,10 @@
         <v>61</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
@@ -15196,10 +15208,10 @@
         <v>119</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>211</v>
@@ -15410,7 +15422,7 @@
         <v>225</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>227</v>
@@ -15492,7 +15504,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15598,7 +15610,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15706,7 +15718,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15732,13 +15744,13 @@
         <v>119</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15788,7 +15800,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15797,7 +15809,7 @@
         <v>48</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>39</v>
@@ -15814,7 +15826,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15840,13 +15852,13 @@
         <v>104</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -15896,7 +15908,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -15911,7 +15923,7 @@
         <v>39</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>39</v>
@@ -15922,7 +15934,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15948,13 +15960,13 @@
         <v>119</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16004,7 +16016,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16030,7 +16042,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16053,22 +16065,22 @@
         <v>49</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -16114,7 +16126,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16129,10 +16141,10 @@
         <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16140,7 +16152,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16163,17 +16175,17 @@
         <v>49</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16222,7 +16234,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>48</v>
@@ -16237,18 +16249,18 @@
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16274,14 +16286,14 @@
         <v>170</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>39</v>
@@ -16310,26 +16322,26 @@
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE137" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
       </c>
@@ -16343,18 +16355,18 @@
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16377,17 +16389,17 @@
         <v>49</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16436,7 +16448,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16451,18 +16463,18 @@
         <v>39</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16485,19 +16497,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16546,7 +16558,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16561,18 +16573,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16598,14 +16610,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16633,29 +16645,29 @@
         <v>147</v>
       </c>
       <c r="X140" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE140" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y140" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
       </c>
@@ -16669,18 +16681,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16703,13 +16715,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16760,7 +16772,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -16775,7 +16787,7 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16786,7 +16798,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16809,17 +16821,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16868,7 +16880,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16883,18 +16895,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16917,17 +16929,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16976,7 +16988,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -16991,18 +17003,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17028,10 +17040,10 @@
         <v>218</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17082,7 +17094,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17097,10 +17109,10 @@
         <v>39</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>

--- a/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>RelatedPerson.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>RelatedPerson.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>RelatedPerson.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -255,7 +255,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -285,7 +285,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -311,7 +311,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>RelatedPerson.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>RelatedPerson.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -471,7 +471,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -548,7 +548,7 @@
     <t>RelatedPerson.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -630,7 +630,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -654,10 +654,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -681,7 +681,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -699,7 +699,7 @@
     <t>RelatedPerson.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -721,7 +721,7 @@
     <t>RelatedPerson.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -769,16 +769,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -802,7 +799,7 @@
     <t>RelatedPerson.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -880,7 +877,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -921,16 +918,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -968,9 +962,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
@@ -997,7 +988,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>medicalRecordNumber</t>
@@ -1020,7 +1011,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1055,9 +1046,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1130,7 +1118,7 @@
     <t>RelatedPerson.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1146,7 +1134,7 @@
     <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>.statusCode</t>
@@ -1158,7 +1146,7 @@
     <t>RelatedPerson.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1)
 </t>
   </si>
   <si>
@@ -1204,7 +1192,7 @@
     <t>RelatedPerson.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1226,7 +1214,7 @@
     <t>RelatedPerson.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1275,7 +1263,7 @@
     <t>RelatedPerson.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1291,7 +1279,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1313,7 +1301,7 @@
     <t>RelatedPerson.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1397,67 +1385,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1493,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM144"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1516,7 +1504,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -6126,7 +6114,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6220,10 +6208,10 @@
         <v>61</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
@@ -6234,7 +6222,7 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>39</v>
@@ -6328,10 +6316,10 @@
         <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>211</v>
@@ -6357,7 +6345,7 @@
         <v>39</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>39</v>
@@ -6436,7 +6424,7 @@
         <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>220</v>
@@ -6516,7 +6504,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6622,7 +6610,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6730,7 +6718,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6753,16 +6741,16 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6812,33 +6800,33 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH49" t="s" s="2">
+      <c r="AI49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6861,89 +6849,89 @@
         <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P50" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE50" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7059,7 +7047,7 @@
         <v>103</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>39</v>
@@ -7084,10 +7072,10 @@
         <v>104</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
@@ -7152,7 +7140,7 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>110</v>
@@ -7516,10 +7504,10 @@
         <v>170</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>173</v>
@@ -7953,7 +7941,7 @@
         <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>193</v>
@@ -8060,10 +8048,10 @@
         <v>61</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
@@ -8074,7 +8062,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>39</v>
@@ -8168,13 +8156,13 @@
         <v>119</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8197,7 +8185,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>39</v>
@@ -8467,7 +8455,7 @@
         <v>103</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>39</v>
@@ -8492,10 +8480,10 @@
         <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -8924,10 +8912,10 @@
         <v>170</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>173</v>
@@ -8943,7 +8931,7 @@
         <v>39</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>39</v>
@@ -9361,7 +9349,7 @@
         <v>191</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>193</v>
@@ -9374,7 +9362,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>39</v>
@@ -9468,10 +9456,10 @@
         <v>61</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
@@ -9482,7 +9470,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>39</v>
@@ -9576,13 +9564,13 @@
         <v>119</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9605,7 +9593,7 @@
         <v>39</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>39</v>
@@ -9875,7 +9863,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
@@ -9900,10 +9888,10 @@
         <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -10332,10 +10320,10 @@
         <v>170</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>173</v>
@@ -10351,7 +10339,7 @@
         <v>39</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>39</v>
@@ -10769,7 +10757,7 @@
         <v>191</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>193</v>
@@ -10782,7 +10770,7 @@
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>39</v>
@@ -10876,10 +10864,10 @@
         <v>61</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
@@ -10890,7 +10878,7 @@
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>39</v>
@@ -10984,13 +10972,13 @@
         <v>119</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11013,7 +11001,7 @@
         <v>39</v>
       </c>
       <c r="V88" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W88" t="s" s="2">
         <v>39</v>
@@ -11283,7 +11271,7 @@
         <v>103</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>39</v>
@@ -11308,10 +11296,10 @@
         <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -11740,10 +11728,10 @@
         <v>170</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>173</v>
@@ -11759,7 +11747,7 @@
         <v>39</v>
       </c>
       <c r="R95" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>39</v>
@@ -12177,7 +12165,7 @@
         <v>191</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>193</v>
@@ -12190,7 +12178,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>39</v>
@@ -12284,10 +12272,10 @@
         <v>61</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
@@ -12298,7 +12286,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>39</v>
@@ -12392,13 +12380,13 @@
         <v>119</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12421,7 +12409,7 @@
         <v>39</v>
       </c>
       <c r="V101" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W101" t="s" s="2">
         <v>39</v>
@@ -12691,7 +12679,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
@@ -12716,10 +12704,10 @@
         <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -13148,7 +13136,7 @@
         <v>170</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L108" t="s" s="2">
         <v>172</v>
@@ -13167,7 +13155,7 @@
         <v>39</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>39</v>
@@ -13585,7 +13573,7 @@
         <v>191</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>193</v>
@@ -13598,7 +13586,7 @@
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="R112" t="s" s="2">
         <v>39</v>
@@ -13692,10 +13680,10 @@
         <v>61</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
@@ -13800,10 +13788,10 @@
         <v>119</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>211</v>
@@ -14014,7 +14002,7 @@
         <v>225</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>227</v>
@@ -14099,7 +14087,7 @@
         <v>103</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>39</v>
@@ -14124,10 +14112,10 @@
         <v>104</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -14556,7 +14544,7 @@
         <v>170</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>172</v>
@@ -14575,7 +14563,7 @@
         <v>39</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>39</v>
@@ -14993,7 +14981,7 @@
         <v>191</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>193</v>
@@ -15006,7 +14994,7 @@
       </c>
       <c r="P125" s="2"/>
       <c r="Q125" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="R125" t="s" s="2">
         <v>39</v>
@@ -15100,10 +15088,10 @@
         <v>61</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" t="s" s="2">
@@ -15208,10 +15196,10 @@
         <v>119</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>211</v>
@@ -15422,7 +15410,7 @@
         <v>225</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L129" t="s" s="2">
         <v>227</v>
@@ -15504,7 +15492,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -15610,7 +15598,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15718,7 +15706,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15744,13 +15732,13 @@
         <v>119</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15800,7 +15788,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15809,7 +15797,7 @@
         <v>48</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>39</v>
@@ -15826,7 +15814,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15852,13 +15840,13 @@
         <v>104</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -15908,7 +15896,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -15923,7 +15911,7 @@
         <v>39</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>39</v>
@@ -15934,7 +15922,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15960,13 +15948,13 @@
         <v>119</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -16016,7 +16004,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16042,7 +16030,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16065,22 +16053,22 @@
         <v>49</v>
       </c>
       <c r="J135" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="K135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
@@ -16126,7 +16114,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16141,10 +16129,10 @@
         <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16152,7 +16140,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16175,17 +16163,17 @@
         <v>49</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16234,7 +16222,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>48</v>
@@ -16249,18 +16237,18 @@
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16286,14 +16274,14 @@
         <v>170</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M137" s="2"/>
       <c r="N137" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>39</v>
@@ -16322,7 +16310,7 @@
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>39</v>
@@ -16340,7 +16328,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16355,18 +16343,18 @@
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -16389,17 +16377,17 @@
         <v>49</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16448,7 +16436,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16463,18 +16451,18 @@
         <v>39</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16497,19 +16485,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16558,7 +16546,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16573,18 +16561,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16610,14 +16598,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16645,10 +16633,10 @@
         <v>147</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
@@ -16666,7 +16654,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -16681,18 +16669,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16715,13 +16703,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16772,22 +16760,22 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16798,7 +16786,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16821,17 +16809,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16880,7 +16868,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16895,18 +16883,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16929,17 +16917,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16988,7 +16976,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17003,18 +16991,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17040,10 +17028,10 @@
         <v>218</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17094,25 +17082,25 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK144" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>

--- a/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {RelatedPerson.identifier.exists() or RelatedPerson.name.exists() or RelatedPerson.relationship.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {identifier.exists() or name.exists() or relationship.exists()}</t>
   </si>
   <si>
     <t>role</t>

--- a/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
@@ -16892,7 +16892,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
         <v>403</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>39</v>

--- a/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
+++ b/output/AdvanceCareRecords/relatedperson-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4909" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {identifier.exists() or name.exists() or relationship.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-relper-01:The related person shall at least have a name, an identifier or a relationship with the patient {identifier.exists() or name.exists() or relationship.exists()}inv-dh-relper-02:The patient reference shall at least have a reference, an identifier or a display {patient.reference.exists() or patient.identifier.exists() or patient.display.exists()}</t>
   </si>
   <si>
     <t>role</t>
@@ -1196,19 +1196,30 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the person</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
+    <t>Name of a human - parts and usage</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts may or may not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
   </si>
   <si>
     <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>NK1-2</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-humn-01:The name shall at least have text or a family name or a given name {text.exists() or family.exists() or given.exists()}</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>XPN</t>
   </si>
   <si>
     <t>RelatedPerson.telecom</t>
@@ -16374,7 +16385,7 @@
         <v>39</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J138" t="s" s="2">
         <v>369</v>
@@ -16385,9 +16396,11 @@
       <c r="L138" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M138" s="2"/>
+      <c r="M138" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N138" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>39</v>
@@ -16445,24 +16458,24 @@
         <v>41</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>39</v>
+        <v>374</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>39</v>
+        <v>375</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16485,19 +16498,19 @@
         <v>49</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>39</v>
@@ -16546,7 +16559,7 @@
         <v>39</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>40</v>
@@ -16561,18 +16574,18 @@
         <v>39</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16598,14 +16611,14 @@
         <v>67</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>39</v>
@@ -16633,10 +16646,10 @@
         <v>147</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>39</v>
@@ -16654,7 +16667,7 @@
         <v>39</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>40</v>
@@ -16669,18 +16682,18 @@
         <v>39</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -16703,13 +16716,13 @@
         <v>49</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16760,7 +16773,7 @@
         <v>39</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>40</v>
@@ -16775,7 +16788,7 @@
         <v>39</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>39</v>
@@ -16786,7 +16799,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16809,17 +16822,17 @@
         <v>49</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>39</v>
@@ -16868,7 +16881,7 @@
         <v>39</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>40</v>
@@ -16883,18 +16896,18 @@
         <v>39</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16917,17 +16930,17 @@
         <v>39</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
@@ -16976,7 +16989,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -16991,18 +17004,18 @@
         <v>39</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AK143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17028,10 +17041,10 @@
         <v>218</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -17082,7 +17095,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17097,10 +17110,10 @@
         <v>39</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>39</v>
